--- a/Data/6. 이력서 다중값-자격증.xlsx
+++ b/Data/6. 이력서 다중값-자격증.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB7A56-24D9-4B84-BC4C-3A643158E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B0BAEF-6549-426D-8492-BA790F030104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="210" windowWidth="10140" windowHeight="10170" xr2:uid="{ED65CE82-3F5B-42DD-A0BB-DF8688966150}"/>
+    <workbookView xWindow="8025" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{ED65CE82-3F5B-42DD-A0BB-DF8688966150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1330,7 +1330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,16 +1340,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1669,9 +1663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E62C648-D668-4FCA-B8B5-9F6400309203}">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1680,7 +1676,7 @@
     <col min="3" max="3" width="49.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>366</v>
       </c>
@@ -1690,95 +1686,74 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25">
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25">
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25">
+    </row>
+    <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25">
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25">
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25">
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1788,207 +1763,162 @@
       <c r="C8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.25">
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25">
+    </row>
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>334</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.25">
+    </row>
+    <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.25">
+    </row>
+    <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.25">
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.25">
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.25">
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25">
+    </row>
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.25">
+    </row>
+    <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25">
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.25">
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.25">
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25">
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25">
+    </row>
+    <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1998,11 +1928,8 @@
       <c r="C23" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2012,11 +1939,8 @@
       <c r="C24" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2026,193 +1950,151 @@
       <c r="C25" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.25">
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.25">
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.25">
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.25">
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.25">
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.25">
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.25">
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.25">
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.25">
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.25">
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.25">
+    </row>
+    <row r="36" spans="1:3" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.25">
+    </row>
+    <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.25">
+    </row>
+    <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -2222,11 +2104,8 @@
       <c r="C39" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2236,11 +2115,8 @@
       <c r="C40" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,235 +2126,184 @@
       <c r="C41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.25">
+    </row>
+    <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.25">
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.25">
+    </row>
+    <row r="44" spans="1:3" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.25">
+    </row>
+    <row r="45" spans="1:3" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.25">
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.25">
+    </row>
+    <row r="47" spans="1:3" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.25">
+    </row>
+    <row r="48" spans="1:3" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="17.25">
+    </row>
+    <row r="49" spans="1:3" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.25">
+    </row>
+    <row r="50" spans="1:3" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.25">
+    </row>
+    <row r="51" spans="1:3" ht="17.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.25">
+    </row>
+    <row r="52" spans="1:3" ht="17.25">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.25">
+    </row>
+    <row r="53" spans="1:3" ht="17.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="17.25">
+    </row>
+    <row r="54" spans="1:3" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>329</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.25">
+    </row>
+    <row r="55" spans="1:3" ht="17.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.25">
+    </row>
+    <row r="56" spans="1:3" ht="17.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.25">
+    </row>
+    <row r="57" spans="1:3" ht="17.25">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -2488,11 +2313,8 @@
       <c r="C58" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2502,11 +2324,8 @@
       <c r="C59" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -2516,95 +2335,74 @@
       <c r="C60" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.25">
+    </row>
+    <row r="61" spans="1:3" ht="17.25">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" ht="17.25">
+    </row>
+    <row r="62" spans="1:3" ht="17.25">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" ht="17.25">
+    </row>
+    <row r="63" spans="1:3" ht="17.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>336</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.25">
+    </row>
+    <row r="64" spans="1:3" ht="17.25">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" ht="17.25">
+    </row>
+    <row r="65" spans="1:3" ht="17.25">
       <c r="A65" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.25">
+    </row>
+    <row r="66" spans="1:3" ht="17.25">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B66" t="s">
         <v>336</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
@@ -2614,11 +2412,8 @@
       <c r="C67" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -2628,11 +2423,8 @@
       <c r="C68" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
@@ -2642,95 +2434,74 @@
       <c r="C69" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.25">
+    </row>
+    <row r="70" spans="1:3" ht="17.25">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.25">
+    </row>
+    <row r="71" spans="1:3" ht="17.25">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B71" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.25">
+    </row>
+    <row r="72" spans="1:3" ht="17.25">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B72" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.25">
+    </row>
+    <row r="73" spans="1:3" ht="17.25">
       <c r="A73" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.25">
+    </row>
+    <row r="74" spans="1:3" ht="17.25">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B74" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.25">
+    </row>
+    <row r="75" spans="1:3" ht="17.25">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>23</v>
       </c>
@@ -2740,165 +2511,129 @@
       <c r="C76" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.25">
+    </row>
+    <row r="77" spans="1:3" ht="17.25">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.25">
+    </row>
+    <row r="78" spans="1:3" ht="17.25">
       <c r="A78" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.25">
+    </row>
+    <row r="79" spans="1:3" ht="17.25">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B79" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="17.25">
+    </row>
+    <row r="80" spans="1:3" ht="17.25">
       <c r="A80" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B80" t="s">
         <v>328</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="17.25">
+    </row>
+    <row r="81" spans="1:3" ht="17.25">
       <c r="A81" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B81" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" ht="17.25">
+    </row>
+    <row r="82" spans="1:3" ht="17.25">
       <c r="A82" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B82" t="s">
         <v>328</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.25">
+    </row>
+    <row r="83" spans="1:3" ht="17.25">
       <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="17.25">
+    </row>
+    <row r="84" spans="1:3" ht="17.25">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" ht="17.25">
+    </row>
+    <row r="85" spans="1:3" ht="17.25">
       <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" ht="17.25">
+    </row>
+    <row r="86" spans="1:3" ht="17.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" ht="17.25">
+    </row>
+    <row r="87" spans="1:3" ht="17.25">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
@@ -2908,39 +2643,30 @@
       <c r="C88" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" ht="17.25">
+    </row>
+    <row r="89" spans="1:3" ht="17.25">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" ht="17.25">
+    </row>
+    <row r="90" spans="1:3" ht="17.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>22</v>
       </c>
@@ -2950,39 +2676,30 @@
       <c r="C91" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" ht="17.25">
+    </row>
+    <row r="92" spans="1:3" ht="17.25">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" ht="17.25">
+    </row>
+    <row r="93" spans="1:3" ht="17.25">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B93" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>69</v>
       </c>
@@ -2992,53 +2709,41 @@
       <c r="C94" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="17.25">
+    </row>
+    <row r="95" spans="1:3" ht="17.25">
       <c r="A95" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B95" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="17.25">
+    </row>
+    <row r="96" spans="1:3" ht="17.25">
       <c r="A96" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B96" t="s">
         <v>235</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="17.25">
+    </row>
+    <row r="97" spans="1:3" ht="17.25">
       <c r="A97" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B97" t="s">
         <v>327</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
@@ -3048,25 +2753,19 @@
       <c r="C98" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="17.25">
+    </row>
+    <row r="99" spans="1:3" ht="17.25">
       <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>37</v>
       </c>
@@ -3076,11 +2775,8 @@
       <c r="C100" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>47</v>
       </c>
@@ -3090,11 +2786,8 @@
       <c r="C101" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
@@ -3104,91 +2797,85 @@
       <c r="C102" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" ht="17.25">
+    </row>
+    <row r="103" spans="1:3" ht="17.25">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" ht="17.25">
+    </row>
+    <row r="104" spans="1:3" ht="17.25">
       <c r="A104" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25">
+    <row r="105" spans="1:3" ht="17.25">
       <c r="A105" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B105" t="s">
         <v>215</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25">
+    <row r="106" spans="1:3" ht="17.25">
       <c r="A106" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B106" t="s">
         <v>215</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25">
+    <row r="107" spans="1:3" ht="17.25">
       <c r="A107" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25">
+    <row r="108" spans="1:3" ht="17.25">
       <c r="A108" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B108" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25">
+    <row r="109" spans="1:3" ht="17.25">
       <c r="A109" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B109" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +2886,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>34</v>
       </c>
@@ -3210,14 +2897,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25">
+    <row r="112" spans="1:3" ht="17.25">
       <c r="A112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3239,7 +2926,7 @@
       <c r="B114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3250,7 +2937,7 @@
       <c r="B115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3261,7 +2948,7 @@
       <c r="B116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3272,7 +2959,7 @@
       <c r="B117" t="s">
         <v>212</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3283,7 +2970,7 @@
       <c r="B118" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3294,7 +2981,7 @@
       <c r="B119" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3305,7 +2992,7 @@
       <c r="B120" t="s">
         <v>234</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3316,7 +3003,7 @@
       <c r="B121" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3327,7 +3014,7 @@
       <c r="B122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3338,7 +3025,7 @@
       <c r="B123" t="s">
         <v>232</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3349,7 +3036,7 @@
       <c r="B124" t="s">
         <v>232</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3371,7 +3058,7 @@
       <c r="B126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3382,7 +3069,7 @@
       <c r="B127" t="s">
         <v>243</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3404,7 +3091,7 @@
       <c r="B129" t="s">
         <v>335</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3415,7 +3102,7 @@
       <c r="B130" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3426,7 +3113,7 @@
       <c r="B131" t="s">
         <v>335</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3437,7 +3124,7 @@
       <c r="B132" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3448,7 +3135,7 @@
       <c r="B133" t="s">
         <v>218</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3459,7 +3146,7 @@
       <c r="B134" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="4" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3470,7 +3157,7 @@
       <c r="B135" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3481,7 +3168,7 @@
       <c r="B136" t="s">
         <v>222</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3492,7 +3179,7 @@
       <c r="B137" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="4" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3503,7 +3190,7 @@
       <c r="B138" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3525,7 +3212,7 @@
       <c r="B140" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3536,7 +3223,7 @@
       <c r="B141" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3558,7 +3245,7 @@
       <c r="B143" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3573,7 +3260,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>43</v>
       </c>
@@ -3584,7 +3271,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>55</v>
       </c>
@@ -3595,109 +3282,109 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17.25">
+    <row r="147" spans="1:4" ht="17.25">
       <c r="A147" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17.25">
+    <row r="148" spans="1:4" ht="17.25">
       <c r="A148" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B148" t="s">
         <v>228</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.25">
+    <row r="149" spans="1:4" ht="17.25">
       <c r="A149" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B149" t="s">
         <v>228</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17.25">
+    <row r="150" spans="1:4" ht="17.25">
       <c r="A150" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17.25">
+    <row r="151" spans="1:4" ht="17.25">
       <c r="A151" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B151" t="s">
         <v>210</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B152" t="s">
         <v>210</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17.25">
+    <row r="153" spans="1:4" ht="17.25">
       <c r="A153" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" ht="17.25">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" ht="17.25">
       <c r="A154" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B154" t="s">
         <v>246</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" ht="17.25">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" ht="17.25">
       <c r="A155" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B155" t="s">
         <v>246</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>72</v>
       </c>
@@ -3708,7 +3395,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>72</v>
       </c>
@@ -3719,7 +3406,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>72</v>
       </c>
@@ -3730,25 +3417,25 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17.25">
+    <row r="159" spans="1:4" ht="17.25">
       <c r="A159" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17.25">
+    <row r="160" spans="1:4" ht="17.25">
       <c r="A160" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B160" t="s">
         <v>238</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="4" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3759,7 +3446,7 @@
       <c r="B161" t="s">
         <v>330</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="4" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3770,7 +3457,7 @@
       <c r="B162" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3781,7 +3468,7 @@
       <c r="B163" t="s">
         <v>238</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3792,7 +3479,7 @@
       <c r="B164" t="s">
         <v>330</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3803,7 +3490,7 @@
       <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3814,7 +3501,7 @@
       <c r="B166" t="s">
         <v>216</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3825,7 +3512,7 @@
       <c r="B167" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3836,7 +3523,7 @@
       <c r="B168" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3858,7 +3545,7 @@
       <c r="B170" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3869,7 +3556,7 @@
       <c r="B171" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3880,7 +3567,7 @@
       <c r="B172" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3902,7 +3589,7 @@
       <c r="B174" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3913,7 +3600,7 @@
       <c r="B175" t="s">
         <v>220</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3924,143 +3611,143 @@
       <c r="B176" t="s">
         <v>220</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="17.25">
+    <row r="177" spans="1:3" ht="17.25">
       <c r="A177" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17.25">
+    <row r="178" spans="1:3" ht="17.25">
       <c r="A178" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B178" t="s">
         <v>224</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="17.25">
+    <row r="179" spans="1:3" ht="17.25">
       <c r="A179" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B180" t="s">
         <v>224</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17.25">
+    <row r="181" spans="1:3" ht="17.25">
       <c r="A181" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="17.25">
+    <row r="182" spans="1:3" ht="17.25">
       <c r="A182" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B182" t="s">
         <v>213</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="17.25">
+    <row r="183" spans="1:3" ht="17.25">
       <c r="A183" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17.25">
+    <row r="184" spans="1:3" ht="17.25">
       <c r="A184" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B184" t="s">
         <v>213</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.25">
+    <row r="185" spans="1:3" ht="17.25">
       <c r="A185" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.25">
+    <row r="186" spans="1:3" ht="17.25">
       <c r="A186" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.25">
+    <row r="187" spans="1:3" ht="17.25">
       <c r="A187" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="17.25">
+    <row r="188" spans="1:3" ht="17.25">
       <c r="A188" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B188" t="s">
         <v>241</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>51</v>
       </c>
@@ -4071,41 +3758,40 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="17.25">
+    <row r="190" spans="1:3" ht="17.25">
       <c r="A190" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B190" t="s">
         <v>333</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="17.25">
+    <row r="191" spans="1:3" ht="17.25">
       <c r="A191" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B191" t="s">
         <v>241</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="17.25">
+    <row r="192" spans="1:3" ht="17.25">
       <c r="A192" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B192" t="s">
         <v>333</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F192" s="6"/>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>31</v>
       </c>
@@ -4115,21 +3801,19 @@
       <c r="C193" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F193" s="6"/>
-    </row>
-    <row r="194" spans="1:6" ht="17.25">
+    </row>
+    <row r="194" spans="1:3" ht="17.25">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F194" s="6"/>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>46</v>
       </c>
@@ -4140,7 +3824,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>28</v>
       </c>
@@ -4151,7 +3835,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -4162,7 +3846,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>32</v>
       </c>
@@ -4173,18 +3857,18 @@
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="17.25">
+    <row r="199" spans="1:3" ht="17.25">
       <c r="A199" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>39</v>
       </c>
@@ -4195,91 +3879,91 @@
         <v>287</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="17.25">
+    <row r="201" spans="1:3" ht="17.25">
       <c r="A201" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="17.25">
+    <row r="202" spans="1:3" ht="17.25">
       <c r="A202" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B202" t="s">
         <v>230</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="17.25">
+    <row r="203" spans="1:3" ht="17.25">
       <c r="A203" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B203" t="s">
         <v>230</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17.25">
+    <row r="204" spans="1:3" ht="17.25">
       <c r="A204" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17.25">
+    <row r="205" spans="1:3" ht="17.25">
       <c r="A205" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B205" t="s">
         <v>208</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17.25">
+    <row r="206" spans="1:3" ht="17.25">
       <c r="A206" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17.25">
+    <row r="207" spans="1:3" ht="17.25">
       <c r="A207" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17.25">
+    <row r="208" spans="1:3" ht="17.25">
       <c r="A208" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4290,7 +3974,7 @@
       <c r="B209" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4301,7 +3985,7 @@
       <c r="B210" t="s">
         <v>221</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4312,7 +3996,7 @@
       <c r="B211" t="s">
         <v>221</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4323,7 +4007,7 @@
       <c r="B212" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4334,7 +4018,7 @@
       <c r="B213" t="s">
         <v>211</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4345,7 +4029,7 @@
       <c r="B214" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4356,7 +4040,7 @@
       <c r="B215" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4367,7 +4051,7 @@
       <c r="B216" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4378,7 +4062,7 @@
       <c r="B217" t="s">
         <v>226</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4389,7 +4073,7 @@
       <c r="B218" t="s">
         <v>226</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="4" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4455,7 +4139,7 @@
       <c r="B224" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4466,7 +4150,7 @@
       <c r="B225" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4477,7 +4161,7 @@
       <c r="B226" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="5" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4488,7 +4172,7 @@
       <c r="B227" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4499,7 +4183,7 @@
       <c r="B228" t="s">
         <v>214</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4510,7 +4194,7 @@
       <c r="B229" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4521,7 +4205,7 @@
       <c r="B230" t="s">
         <v>214</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4532,7 +4216,7 @@
       <c r="B231" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4543,7 +4227,7 @@
       <c r="B232" t="s">
         <v>240</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4565,7 +4249,7 @@
       <c r="B234" t="s">
         <v>332</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4576,7 +4260,7 @@
       <c r="B235" t="s">
         <v>240</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4587,7 +4271,7 @@
       <c r="B236" t="s">
         <v>332</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="3" t="s">
         <v>293</v>
       </c>
     </row>
